--- a/public/documents/templateCertificate.xlsx
+++ b/public/documents/templateCertificate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Participant Status</t>
-  </si>
-  <si>
-    <t>UBPP</t>
   </si>
   <si>
     <t>Job Position</t>
@@ -668,18 +665,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="E1" sqref="E1:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
@@ -696,7 +694,7 @@
     <col min="24" max="24" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,46 +764,43 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="3">
-        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
+      <c r="J2" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>84</v>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>32</v>
@@ -834,52 +829,49 @@
       <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
+      <c r="V2" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3">
-        <v>90</v>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>84</v>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>32</v>
@@ -908,52 +900,49 @@
       <c r="U3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>41</v>
+      <c r="V3" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="3">
-        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
+      <c r="J4" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>84</v>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>32</v>
@@ -982,52 +971,49 @@
       <c r="U4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>41</v>
+      <c r="V4" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
+      <c r="J5" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>84</v>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>32</v>
@@ -1056,31 +1042,28 @@
       <c r="U5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>41</v>
+      <c r="V5" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>57</v>
@@ -1088,26 +1071,26 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
+      <c r="J6" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>86</v>
+      <c r="L6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>63</v>
@@ -1122,66 +1105,63 @@
         <v>66</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>69</v>
+      <c r="V6" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
-        <v>90</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>61</v>
+      <c r="J7" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>86</v>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>63</v>
@@ -1196,39 +1176,36 @@
         <v>66</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="U7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3">
-        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -1236,26 +1213,26 @@
       <c r="G8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
+      <c r="J8" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>86</v>
+      <c r="L8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>63</v>
@@ -1270,66 +1247,63 @@
         <v>66</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="U8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
+      <c r="J9" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>86</v>
+      <c r="L9" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>63</v>
@@ -1344,30 +1318,27 @@
         <v>66</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="U9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
